--- a/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC10D4-2459-4B04-9651-F25FFE9F75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{61CC10D4-2459-4B04-9651-F25FFE9F75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78A82F5-5407-48C6-A0DC-3D2FE390E5E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -812,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +821,7 @@
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,4 +1326,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFBBD77-8A10-4D40-930B-13A7613F4AE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2006/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{61CC10D4-2459-4B04-9651-F25FFE9F75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78A82F5-5407-48C6-A0DC-3D2FE390E5E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F4F258-4D97-4B11-91B9-438A9816E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +30,7 @@
     <author>Luan Michel</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{73F27F66-45E7-4B56-A566-0D7F22136CAE}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{73F27F66-45E7-4B56-A566-0D7F22136CAE}">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B8A35805-8B90-4E6E-A3C8-27906FDF6D6B}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{B8A35805-8B90-4E6E-A3C8-27906FDF6D6B}">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>IN_ENERGIA_REDE_PUBLICA</t>
   </si>
@@ -393,6 +392,24 @@
   </si>
   <si>
     <t>Educacao_Profissional_Tecnico</t>
+  </si>
+  <si>
+    <t>CODESC</t>
+  </si>
+  <si>
+    <t>NOMESC</t>
+  </si>
+  <si>
+    <t>CO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>NO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>Codigo_Escola</t>
+  </si>
+  <si>
+    <t>Nome_Escola</t>
   </si>
 </sst>
 </file>
@@ -811,17 +828,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,505 +854,515 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>81</v>
-      </c>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>83</v>
-      </c>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>59</v>
+      <c r="B58" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B46:B53"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFBBD77-8A10-4D40-930B-13A7613F4AE6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Padronização_2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F4F258-4D97-4B11-91B9-438A9816E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62751FF5-B0B8-4D2D-9E3E-933A2B839B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Luan Michel</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{73F27F66-45E7-4B56-A566-0D7F22136CAE}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{73F27F66-45E7-4B56-A566-0D7F22136CAE}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{B8A35805-8B90-4E6E-A3C8-27906FDF6D6B}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B8A35805-8B90-4E6E-A3C8-27906FDF6D6B}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>IN_ENERGIA_REDE_PUBLICA</t>
   </si>
@@ -392,24 +392,6 @@
   </si>
   <si>
     <t>Educacao_Profissional_Tecnico</t>
-  </si>
-  <si>
-    <t>CODESC</t>
-  </si>
-  <si>
-    <t>NOMESC</t>
-  </si>
-  <si>
-    <t>CO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>NO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>Codigo_Escola</t>
-  </si>
-  <si>
-    <t>Nome_Escola</t>
   </si>
 </sst>
 </file>
@@ -828,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,513 +836,491 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>91</v>
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>81</v>
-      </c>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>83</v>
-      </c>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>88</v>
       </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="3" t="s">
-        <v>58</v>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B44:B51"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
